--- a/examples/Acid_test.xlsx
+++ b/examples/Acid_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\LIB_Toolkit _TEST\TODO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA951B63-6627-4D60-B700-3D722260858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EDADB5-3C03-4F68-B12F-7DA93E603BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="699" xr2:uid="{0C2C1BC4-E9C6-4B2C-94CC-003F83AF3EDF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" tabRatio="699" xr2:uid="{0C2C1BC4-E9C6-4B2C-94CC-003F83AF3EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>pKa1</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>OS(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>ON(=O)=O</t>
+  </si>
+  <si>
+    <t>OC(=O)CC(O)(C(=O)O)CC(=O)O</t>
+  </si>
+  <si>
+    <t>CC(O)=O</t>
   </si>
 </sst>
 </file>
@@ -459,7 +474,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +560,9 @@
       <c r="D2">
         <v>50</v>
       </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2">
         <v>-8</v>
       </c>
@@ -592,6 +610,9 @@
       <c r="D3">
         <v>50</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3">
         <v>-3</v>
       </c>
@@ -642,6 +663,9 @@
       <c r="D4">
         <v>50</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>-1.3</v>
       </c>
@@ -689,6 +713,9 @@
       <c r="D5">
         <v>50</v>
       </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
       <c r="F5">
         <v>3.13</v>
       </c>
@@ -741,6 +768,9 @@
       </c>
       <c r="D6">
         <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6">
         <v>4.7560000000000002</v>
